--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -32806,17 +32806,17 @@
       <formula>$O1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$E1 = "dermatomyositis"</formula>
+      <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
@@ -32826,9 +32826,9 @@
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
+      <formula>$E1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -32806,17 +32806,17 @@
       <formula>$O1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
+      <formula>$E1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
+      <formula>$E1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
@@ -32826,14 +32826,14 @@
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$E1 = "dermatomyositis"</formula>
+      <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$E1 = "psoriasis"</formula>
+      <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -32796,44 +32796,44 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$O1 = "psoriasis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$O1 = "diabetes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$O1 = "psoriasis"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$E1 = "psoriasis"</formula>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$E1 = "dermatomyositis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
+      <formula>$E1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
+  <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
+      <formula>$E1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -32796,22 +32796,22 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$O1 = "diabetes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$O1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$O1 = "diabetes"</formula>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$E1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
@@ -32821,14 +32821,14 @@
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$E1 = "dermatomyositis"</formula>
+      <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -20117,7 +20117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>Component</t>
   </si>
@@ -47781,44 +47781,44 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$O1 = "psoriasis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$O1 = "diabetes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$O1 = "psoriasis"</formula>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$E1 = "psoriasis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>$E1 = "dermatomyositis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$E1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
@@ -48177,6 +48177,11 @@
     </row>
     <row r="14">
       <c r="E14" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" s="7" t="s">
         <v>86</v>
       </c>
     </row>

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -47791,34 +47791,34 @@
       <formula>$O1 = "diabetes"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$E1 = "dermatomyositis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$E1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$E1 = "vitiligo"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$E1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -47781,32 +47781,32 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$O1 = "diabetes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$O1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$O1 = "diabetes"</formula>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$E1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$E1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$E1 = "psoriasis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
@@ -47816,7 +47816,7 @@
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -47791,14 +47791,14 @@
       <formula>$O1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$E1 = "psoriasis"</formula>
+      <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$E1 = "dermatomyositis"</formula>
+      <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -47811,14 +47811,14 @@
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
+      <formula>$E1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
+      <formula>$E1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -47781,27 +47781,27 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$O1 = "psoriasis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$O1 = "diabetes"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$E1 = "dermatomyositis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$O1 = "psoriasis"</formula>
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$E1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
@@ -47811,14 +47811,14 @@
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$E1 = "dermatomyositis"</formula>
+      <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$E1 = "psoriasis"</formula>
+      <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -47781,42 +47781,42 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$O1 = "diabetes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$O1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$O1 = "diabetes"</formula>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$E1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$E1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$E1 = "psoriasis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -47781,27 +47781,27 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$O1 = "psoriasis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$O1 = "diabetes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$O1 = "psoriasis"</formula>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$E1 = "psoriasis"</formula>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$E1 = "dermatomyositis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
@@ -47811,14 +47811,14 @@
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
+      <formula>$E1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
+      <formula>$E1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -47791,12 +47791,12 @@
       <formula>$O1 = "diabetes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
@@ -47806,19 +47806,19 @@
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$E1 = "dermatomyositis"</formula>
+      <formula>$E1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$E1 = "psoriasis"</formula>
+      <formula>$E1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -42780,14 +42780,14 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q1:Q1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$O1 = "psoriasis"</formula>
+      <formula>$O1 = "diabetes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
+  <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$O1 = "diabetes"</formula>
+      <formula>$O1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
@@ -42795,22 +42795,22 @@
       <formula>$E1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
@@ -42822,12 +42822,12 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$B1 = "AMP AIM"</formula>
+      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
     <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$B1 = "AMP RA/SLE"</formula>
+      <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -42795,7 +42795,7 @@
       <formula>$E1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
@@ -42805,7 +42805,7 @@
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -42780,14 +42780,14 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U1:U1000">
+  <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$O1 = "diabetes"</formula>
+      <formula>$O1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$O1 = "psoriasis"</formula>
+      <formula>$O1 = "diabetes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
@@ -42795,29 +42795,29 @@
       <formula>$E1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$E1 = "dermatomyositis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$E1 = "vitiligo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>$E1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$E1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$E1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -42794,44 +42794,44 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$P1 = "psoriasis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$P1 = "diabetes"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$F1 = "dermatomyositis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$P1 = "psoriasis"</formula>
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$F1 = "psoriasis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$F1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$F1 = "psoriasis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$F1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -42804,44 +42804,44 @@
       <formula>$P1 = "diabetes"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$F1 = "psoriasis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$F1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$F1 = "psoriasis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="X1:X1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$B1 = "AMP AIM"</formula>
+      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$B1 = "AMP RA/SLE"</formula>
+      <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -42804,44 +42804,44 @@
       <formula>$P1 = "diabetes"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$F1 = "vitiligo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$F1 = "vitiligo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$F1 = "vitiligo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$F1 = "vitiligo"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$F1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>$F1 = "dermatomyositis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$F1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$F1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$F1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$B1 = "AMP RA/SLE"</formula>
+      <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$B1 = "AMP AIM"</formula>
+      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -42794,54 +42794,54 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$P1 = "diabetes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$P1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$P1 = "diabetes"</formula>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$F1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$F1 = "vitiligo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$F1 = "vitiligo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$F1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$F1 = "vitiligo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>$F1 = "psoriasis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$F1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$B1 = "AMP AIM"</formula>
+      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$B1 = "AMP RA/SLE"</formula>
+      <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -42794,54 +42794,54 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$P1 = "psoriasis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$P1 = "diabetes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$P1 = "psoriasis"</formula>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$F1 = "dermatomyositis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
+  <conditionalFormatting sqref="X1:X1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$F1 = "vitiligo"</formula>
+      <formula>$F1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$F1 = "psoriasis"</formula>
+      <formula>$F1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$B1 = "AMP RA/SLE"</formula>
+      <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$B1 = "AMP AIM"</formula>
+      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.ClinicalMetadataTemplate.xlsx
+++ b/model_templates/ark.ClinicalMetadataTemplate.xlsx
@@ -49,7 +49,7 @@
     </comment>
     <comment authorId="0" ref="G1">
       <text>
-        <t xml:space="preserve">Age at which subject was enrolled in study or age at corresponding visit and data collection event.</t>
+        <t xml:space="preserve">Age at which subject was enrolled in study or age at corresponding visit and data collection event. If value unknown, enter '-1'.</t>
       </text>
     </comment>
     <comment authorId="0" ref="H1">
@@ -84,7 +84,7 @@
     </comment>
     <comment authorId="0" ref="N1">
       <text>
-        <t xml:space="preserve">Weight of subject.</t>
+        <t xml:space="preserve">Weight of subject. If value unknown, enter '-1'.</t>
       </text>
     </comment>
     <comment authorId="0" ref="O1">
@@ -42794,54 +42794,54 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$P1 = "diabetes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$P1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$P1 = "diabetes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="X1:X1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$F1 = "vitiligo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$F1 = "psoriasis"</formula>
+      <formula>$F1 = "dermatomyositis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$F1 = "dermatomyositis"</formula>
+      <formula>$F1 = "psoriasis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$B1 = "AMP AIM"</formula>
+      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$B1 = "AMP RA/SLE"</formula>
+      <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
